--- a/private_html/templates/thong_tin_hoc_sinh.xlsx
+++ b/private_html/templates/thong_tin_hoc_sinh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy Long\Desktop\NCKH\Quản lý sinh viên\private\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy Long\Desktop\NCKH\Quản lý sinh viên\quanlysinhvien\private_html\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68262F92-E8A8-475D-900F-43BAEC7DBEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795FD13-E3BF-448E-B0CE-A11D54BD8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Mã học sinh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>Họ tên</t>
   </si>
@@ -82,16 +79,66 @@
   </si>
   <si>
     <t>Niên khóa</t>
+  </si>
+  <si>
+    <t>MHS</t>
+  </si>
+  <si>
+    <t>Đào Duy Long</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Sơn Tây</t>
+  </si>
+  <si>
+    <t>0332058965</t>
+  </si>
+  <si>
+    <t>duylong@gmail.com</t>
+  </si>
+  <si>
+    <t>001203036186</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,10 +182,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,8 +197,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,15 +513,15 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -482,55 +537,463 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>211400787</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{937DB125-B6C8-43CC-BC88-579889D6C36D}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{7032A1C3-3388-4EA9-AFE9-042ECBF17A03}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{F7363ED3-085E-4F0F-BF4D-67AA685E6FF0}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{E40C38FF-D159-4CC6-A893-1D845C6EF615}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{4F72B9DD-CCB1-4A59-A2E2-0D8F61AF4D0A}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{30B0A975-0F4F-4EF5-938D-4377A1111AA6}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{1D444562-2CD9-4EF6-A3CA-B337B6AC243E}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{8C2F6F30-12B1-45C5-91B0-6CF631506AC8}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{8C7059EF-5906-48F3-8125-C104254052AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>